--- a/Results/Calculation/lda2vec-partial-ner-fasttext.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner-fasttext.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C2">
         <v>182</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>0.49</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="H2">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="I2">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,22 +461,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>0.76</v>
       </c>
       <c r="G3">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
         <v>0.78</v>
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>0.72</v>
       </c>
       <c r="G4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="H4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,13 +525,13 @@
         <v>315</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>57</v>
       </c>
       <c r="F5">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G5">
         <v>0.5600000000000001</v>
